--- a/results/I3_N5_M3_T45_C100_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.396452797483</v>
+        <v>232.6464527964958</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.445000171661377</v>
+        <v>0.4030001163482666</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.22562400244179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.22562400244179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>902.4900000009873</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.26</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.60181147454989</v>
+        <v>31.60181147454991</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>32.48909622152286</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.720264823079319</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,48 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>119.2360000000023</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="4">
@@ -1115,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4220000000276</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="5">
@@ -1126,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>77.22300000000388</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1137,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>150.5910000000154</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="7">
@@ -1148,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.34899999999105</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>119.2360000000224</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>120.4220000000568</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>150.5910000000316</v>
+        <v>110.6</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.23600000001841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1239,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>20.42200000005269</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1250,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>50.59100000002763</v>
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1308,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1319,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1330,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1341,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15.975</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1393,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
